--- a/기록물 등록사항_참고.xlsx
+++ b/기록물 등록사항_참고.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>파일명</t>
   </si>
@@ -87,100 +87,105 @@
     <t>File 사이즈</t>
   </si>
   <si>
+    <t>재생시간</t>
+  </si>
+  <si>
+    <t>생산일</t>
+  </si>
+  <si>
+    <t>제공일</t>
+  </si>
+  <si>
+    <t>제공자</t>
+  </si>
+  <si>
+    <t>수집일</t>
+  </si>
+  <si>
+    <t>수집자</t>
+  </si>
+  <si>
+    <t>생산(접수)</t>
+  </si>
+  <si>
+    <t>첨부번호</t>
+  </si>
+  <si>
+    <t>결재권자</t>
+  </si>
+  <si>
+    <t>기안</t>
+  </si>
+  <si>
+    <t>시행일자</t>
+  </si>
+  <si>
+    <t>수신자</t>
+  </si>
+  <si>
+    <t>문서과</t>
+  </si>
+  <si>
+    <t>생산기관</t>
+  </si>
+  <si>
+    <t>특수기록물</t>
+  </si>
+  <si>
+    <t>공개제한</t>
+  </si>
+  <si>
+    <t>제1특수목록</t>
+  </si>
+  <si>
+    <t>제2특수목록</t>
+  </si>
+  <si>
+    <t>제3특수목록</t>
+  </si>
+  <si>
+    <t>내용요약</t>
+  </si>
+  <si>
+    <t>기록물형태</t>
+  </si>
+  <si>
+    <t>등록일자</t>
+  </si>
+  <si>
+    <t>등록번호</t>
+  </si>
+  <si>
+    <t>(업무담당자)</t>
+  </si>
+  <si>
+    <t>(발신자)</t>
+  </si>
+  <si>
+    <t>배부번호</t>
+  </si>
+  <si>
+    <t>부분표시</t>
+  </si>
+  <si>
+    <t>기본등록사항</t>
+  </si>
+  <si>
+    <t>분류등록사항</t>
+  </si>
+  <si>
+    <t>시청각기록물</t>
+  </si>
+  <si>
+    <t>추가등록사항</t>
+  </si>
+  <si>
+    <t>등록구분(단위과제)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>Image 사이즈</t>
-  </si>
-  <si>
-    <t>재생시간</t>
-  </si>
-  <si>
-    <t>생산일</t>
-  </si>
-  <si>
-    <t>제공일</t>
-  </si>
-  <si>
-    <t>제공자</t>
-  </si>
-  <si>
-    <t>수집일</t>
-  </si>
-  <si>
-    <t>수집자</t>
-  </si>
-  <si>
-    <t>생산(접수)</t>
-  </si>
-  <si>
-    <t>첨부번호</t>
-  </si>
-  <si>
-    <t>결재권자</t>
-  </si>
-  <si>
-    <t>기안</t>
-  </si>
-  <si>
-    <t>시행일자</t>
-  </si>
-  <si>
-    <t>수신자</t>
-  </si>
-  <si>
-    <t>문서과</t>
-  </si>
-  <si>
-    <t>생산기관</t>
-  </si>
-  <si>
-    <t>특수기록물</t>
-  </si>
-  <si>
-    <t>공개제한</t>
-  </si>
-  <si>
-    <t>제1특수목록</t>
-  </si>
-  <si>
-    <t>제2특수목록</t>
-  </si>
-  <si>
-    <t>제3특수목록</t>
-  </si>
-  <si>
-    <t>내용요약</t>
-  </si>
-  <si>
-    <t>기록물형태</t>
-  </si>
-  <si>
-    <t>등록일자</t>
-  </si>
-  <si>
-    <t>등록번호</t>
-  </si>
-  <si>
-    <t>(업무담당자)</t>
-  </si>
-  <si>
-    <t>(발신자)</t>
-  </si>
-  <si>
-    <t>배부번호</t>
-  </si>
-  <si>
-    <t>부분표시</t>
-  </si>
-  <si>
-    <t>기본등록사항</t>
-  </si>
-  <si>
-    <t>분류등록사항</t>
-  </si>
-  <si>
-    <t>시청각기록물</t>
-  </si>
-  <si>
-    <t>추가등록사항</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -349,22 +354,35 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -372,23 +390,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,18 +573,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -709,15 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -946,68 +928,50 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1348,348 +1312,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.25" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.125" customWidth="1"/>
+    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="T1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="3"/>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    <row r="3" spans="1:22" s="7" customFormat="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="5" spans="1:22" ht="17.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="9"/>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="6" t="s">
+    <row r="6" spans="1:22" ht="46.5" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="C6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
     </row>
-    <row r="7" spans="1:32" ht="24">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="20" t="s">
+    <row r="7" spans="1:22" ht="17.25">
+      <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:32" ht="17.25">
-      <c r="A8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="15" t="s">
+    <row r="8" spans="1:22" ht="17.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="16"/>
-    </row>
-    <row r="9" spans="1:32" ht="17.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="V9" s="14"/>
+      <c r="V8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:M9"/>
-    <mergeCell ref="N8:T9"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:M8"/>
+    <mergeCell ref="N7:T8"/>
+    <mergeCell ref="U7:V7"/>
     <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1702,7 +1690,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1715,7 +1703,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>